--- a/BILANCIA DI COLUMB/bilancia di columb dati.xlsx
+++ b/BILANCIA DI COLUMB/bilancia di columb dati.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">diametro sfere</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>teta3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teta AVG</t>
   </si>
 </sst>
 </file>
@@ -72,10 +75,11 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,9 +628,9 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -639,8 +643,11 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
       <c r="A2" s="1">
         <v>6</v>
       </c>
@@ -653,202 +660,281 @@
       <c r="D2">
         <v>186</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="E2" s="2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>186.33333333333334</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
       <c r="A3" s="1">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>122</v>
+      </c>
+      <c r="C3" s="2">
+        <v>126</v>
+      </c>
+      <c r="D3" s="3">
+        <v>126</v>
+      </c>
+      <c r="E3" s="2">
+        <f>AVERAGE(B3:D3)</f>
+        <v>124.66666666666667</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>106</v>
+      </c>
+      <c r="C4" s="2">
+        <v>107</v>
+      </c>
+      <c r="D4" s="3">
+        <v>103</v>
+      </c>
+      <c r="E4" s="2">
+        <f>AVERAGE(B4:D4)</f>
+        <v>105.33333333333333</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="1">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B5" s="2">
         <v>94</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C5" s="2">
         <v>93</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>90</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
+      <c r="E5" s="2">
+        <f>AVERAGE(B5:D5)</f>
+        <v>92.333333333333329</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="1">
         <v>12</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B6" s="2">
         <v>53</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9">
+      <c r="C6" s="2">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2">
+        <f>AVERAGE(B6:D6)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="1">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2">
+        <f>AVERAGE(B7:D7)</f>
+        <v>32.333333333333336</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="1">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <f>AVERAGE(B8:D8)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" ht="14.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" ht="14.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" ht="14.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" ht="14.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" ht="14.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" ht="14.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" ht="14.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" ht="14.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" ht="14.25">
+      <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" ht="14.25">
+      <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" ht="14.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" ht="14.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" ht="14.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" ht="14.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" ht="14.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" ht="14.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" ht="14.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" ht="14.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" ht="14.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" ht="14.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" ht="14.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" ht="14.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" ht="14.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" ht="14.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" ht="14.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" ht="14.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" ht="14.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" ht="14.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" ht="14.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" ht="14.25">
       <c r="B39" s="2"/>
-    </row>
-    <row r="40">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" ht="14.25">
       <c r="B40" s="2"/>
-    </row>
-    <row r="41">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" ht="14.25">
       <c r="B41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" ht="14.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" ht="14.25">
       <c r="B43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" ht="14.25">
       <c r="B44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" ht="14.25">
       <c r="B45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" ht="14.25">
       <c r="B46" s="2"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="B48" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/BILANCIA DI COLUMB/bilancia di columb dati.xlsx
+++ b/BILANCIA DI COLUMB/bilancia di columb dati.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="misure iniziali" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="6kV" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="d=10cm cambio volt" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="V1=6V d=10cm" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="torsione" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">diametro sfere</t>
   </si>
@@ -49,6 +50,12 @@
   </si>
   <si>
     <t>V2</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>teta4</t>
   </si>
 </sst>
 </file>
@@ -1064,11 +1071,112 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>70</v>
+      </c>
+      <c r="C6" s="4">
+        <v>72</v>
+      </c>
+      <c r="D6" s="4">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -1079,75 +1187,84 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>320</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <f>360+88</f>
+        <v>448</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <f>360+87</f>
+        <v>447</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <f>360+87</f>
+        <v>447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <v>70</v>
-      </c>
-      <c r="C6" s="4">
-        <v>72</v>
-      </c>
-      <c r="D6" s="4">
-        <v>73</v>
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <f>360+225</f>
+        <v>585</v>
+      </c>
+      <c r="C6">
+        <f>360+217</f>
+        <v>577</v>
+      </c>
+      <c r="D6">
+        <f>360+230</f>
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/BILANCIA DI COLUMB/bilancia di columb dati.xlsx
+++ b/BILANCIA DI COLUMB/bilancia di columb dati.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">diametro sfere</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>teta4</t>
+  </si>
+  <si>
+    <t>teta5</t>
   </si>
 </sst>
 </file>
@@ -1190,6 +1193,9 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -1204,6 +1210,12 @@
       <c r="D2">
         <v>129</v>
       </c>
+      <c r="E2">
+        <v>128</v>
+      </c>
+      <c r="F2">
+        <v>130</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -1218,6 +1230,12 @@
       <c r="D3">
         <v>250</v>
       </c>
+      <c r="E3">
+        <v>257</v>
+      </c>
+      <c r="F3">
+        <v>251</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -1232,6 +1250,12 @@
       <c r="D4">
         <v>320</v>
       </c>
+      <c r="E4">
+        <v>328</v>
+      </c>
+      <c r="F4">
+        <v>323</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -1249,6 +1273,14 @@
         <f>360+87</f>
         <v>447</v>
       </c>
+      <c r="E5">
+        <f>360+101</f>
+        <v>461</v>
+      </c>
+      <c r="F5">
+        <f>360+91</f>
+        <v>451</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -1265,6 +1297,14 @@
       <c r="D6">
         <f>360+230</f>
         <v>590</v>
+      </c>
+      <c r="E6">
+        <f>360+233</f>
+        <v>593</v>
+      </c>
+      <c r="F6">
+        <f>360+218</f>
+        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/BILANCIA DI COLUMB/bilancia di columb dati.xlsx
+++ b/BILANCIA DI COLUMB/bilancia di columb dati.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="misure iniziali" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">diametro sfere</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>teta3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teta AVG</t>
   </si>
   <si>
     <t>V</t>
@@ -664,9 +661,6 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="1">
@@ -681,10 +675,7 @@
       <c r="D2">
         <v>186</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E8" si="0">AVERAGE(B2:D2)</f>
-        <v>186.33333333333334</v>
-      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1">
@@ -699,10 +690,7 @@
       <c r="D3" s="3">
         <v>126</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>124.66666666666667</v>
-      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="1">
@@ -717,10 +705,7 @@
       <c r="D4" s="3">
         <v>103</v>
       </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>105.33333333333333</v>
-      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="1">
@@ -735,10 +720,7 @@
       <c r="D5">
         <v>90</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>92.333333333333329</v>
-      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="1">
@@ -753,10 +735,7 @@
       <c r="D6">
         <v>51</v>
       </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="1">
@@ -771,10 +750,7 @@
       <c r="D7">
         <v>31</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>32.333333333333336</v>
-      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="1">
@@ -789,10 +765,7 @@
       <c r="D8">
         <v>18</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="1"/>
@@ -976,7 +949,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -1078,7 +1051,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -1175,11 +1148,11 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -1191,10 +1164,10 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2">

--- a/BILANCIA DI COLUMB/bilancia di columb dati.xlsx
+++ b/BILANCIA DI COLUMB/bilancia di columb dati.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">diametro sfere</t>
   </si>
@@ -43,6 +43,9 @@
     <t>teta3</t>
   </si>
   <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
     <t>V</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="160" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11.000000"/>
@@ -90,11 +96,12 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -661,6 +668,9 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="1">
@@ -675,7 +685,10 @@
       <c r="D2">
         <v>186</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>186.33333333333334</v>
+      </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1">
@@ -690,7 +703,10 @@
       <c r="D3" s="3">
         <v>126</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <f>AVERAGE(B3:D3)</f>
+        <v>124.66666666666667</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="1">
@@ -705,7 +721,10 @@
       <c r="D4" s="3">
         <v>103</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <f>AVERAGE(B4:D4)</f>
+        <v>105.33333333333333</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="1">
@@ -720,7 +739,10 @@
       <c r="D5">
         <v>90</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <f>AVERAGE(B5:D5)</f>
+        <v>92.333333333333329</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="1">
@@ -735,7 +757,10 @@
       <c r="D6">
         <v>51</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <f>AVERAGE(B6:D6)</f>
+        <v>52</v>
+      </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="1">
@@ -750,7 +775,10 @@
       <c r="D7">
         <v>31</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <f>AVERAGE(B7:D7)</f>
+        <v>32.333333333333336</v>
+      </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="1">
@@ -765,7 +793,10 @@
       <c r="D8">
         <v>18</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <f>AVERAGE(B8:D8)</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="1"/>
@@ -949,7 +980,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -959,6 +990,9 @@
       </c>
       <c r="D1" t="s">
         <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -974,6 +1008,10 @@
       <c r="D2">
         <v>6</v>
       </c>
+      <c r="E2" s="4">
+        <f>AVERAGE(B2:D2)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -988,6 +1026,10 @@
       <c r="D3">
         <v>17</v>
       </c>
+      <c r="E3" s="4">
+        <f>AVERAGE(B3:D3)</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -1002,6 +1044,10 @@
       <c r="D4">
         <v>34</v>
       </c>
+      <c r="E4" s="4">
+        <f>AVERAGE(B4:D4)</f>
+        <v>33.666666666666664</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -1016,6 +1062,10 @@
       <c r="D5">
         <v>48</v>
       </c>
+      <c r="E5" s="4">
+        <f>AVERAGE(B5:D5)</f>
+        <v>48.666666666666664</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -1029,6 +1079,10 @@
       </c>
       <c r="D6">
         <v>73</v>
+      </c>
+      <c r="E6" s="4">
+        <f>AVERAGE(B6:D6)</f>
+        <v>71.666666666666671</v>
       </c>
     </row>
     <row r="7"/>
@@ -1051,7 +1105,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -1061,6 +1115,9 @@
       </c>
       <c r="D1" t="s">
         <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -1076,6 +1133,10 @@
       <c r="D2">
         <v>23</v>
       </c>
+      <c r="E2" s="4">
+        <f>AVERAGE(B2:D2)</f>
+        <v>21.333333333333332</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -1090,6 +1151,10 @@
       <c r="D3">
         <v>36</v>
       </c>
+      <c r="E3" s="4">
+        <f>AVERAGE(B3:D3)</f>
+        <v>38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -1104,6 +1169,10 @@
       <c r="D4">
         <v>53</v>
       </c>
+      <c r="E4" s="4">
+        <f>AVERAGE(B4:D4)</f>
+        <v>52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -1118,19 +1187,27 @@
       <c r="D5">
         <v>59</v>
       </c>
+      <c r="E5" s="4">
+        <f>AVERAGE(B5:D5)</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>70</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>72</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>73</v>
+      </c>
+      <c r="E6" s="4">
+        <f>AVERAGE(B6:D6)</f>
+        <v>71.666666666666671</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1229,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -1164,10 +1241,10 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
